--- a/规则大全.xlsx
+++ b/规则大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\游戏设计方案\秽土\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1A182-CA6E-4ADF-8BB6-C4F240F19948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB225E-0B4B-452C-92C3-291AAB5EC83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -618,56 +618,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(物品:存储+携带)
+核心:100+10
+道具:0+4
+手段:100+4
+手段框:0+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愈演愈烈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始的行动力会随着回合的增加而增加
+行动力+当前回合数/5 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电闪雷鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一回合后,对电闪内的单位造成"成长伤害(0, 50)"天雷伤害,所有目标平摊此伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天霹雳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始,对霹雳内的单位造成"成长伤害(0, 50)"天雷伤害,所有目标平摊此伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能最低冷却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能如果基础冷却不为0,那么最低冷却时长为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能标签是技能本身带有的特性:
 版权技能:这个技能仅能通过模板获得
 智核技能:这个技能可以通过智核获得
 位移技能:释放此技能被视为移动,即在代码上会被当作进行移动处理
 特殊攻击:释放此技能被视为进攻,即在代码上会被当作进行进攻处理
 召唤技能:这个技能一定调用了"召唤"方法
+消耗技能:这个技能在触发效果后消失
 血线技能:这个被动技能的触发方式与血量百分比有关
 拳击技巧:这个被动技能被标记为拳击技巧,用于响应"拜师学艺"
 隐私技能:你无法得知此技能的具体细节,包括名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(物品:存储+携带)
-核心:100+10
-道具:0+4
-手段:100+4
-手段框:0+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愈演愈烈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始的行动力会随着回合的增加而增加
-行动力+当前回合数/5 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电闪雷鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一回合后,对电闪内的单位造成"成长伤害(0, 50)"天雷伤害,所有目标平摊此伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴天霹雳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始,对霹雳内的单位造成"成长伤害(0, 50)"天雷伤害,所有目标平摊此伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能最低冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能如果基础冷却不为0,那么最低冷却时长为1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1191,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F241D3D-7399-4996-9673-299E54708901}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1296,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BA9FC0-3C89-4B1B-AB02-C3F2C08CC3CF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
@@ -1445,28 +1446,28 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="140.6">
+    <row r="14" spans="1:3" ht="156.25">
       <c r="B14" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.25">
       <c r="B15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1526,10 +1527,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1537,10 +1538,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="142.65">
@@ -1841,7 +1842,7 @@
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.25">

--- a/规则大全.xlsx
+++ b/规则大全.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\游戏设计方案\秽土\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB225E-0B4B-452C-92C3-291AAB5EC83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2219E5-A10E-41F8-9B17-3885C25865F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
     <sheet name="数值规则" sheetId="9" r:id="rId2"/>
     <sheet name="细节规则" sheetId="2" r:id="rId3"/>
     <sheet name="名词解析" sheetId="14" r:id="rId4"/>
-    <sheet name="时间地点事件" sheetId="16" r:id="rId5"/>
-    <sheet name="玩家特权" sheetId="8" r:id="rId6"/>
-    <sheet name="AI逻辑" sheetId="11" r:id="rId7"/>
+    <sheet name="己方特权" sheetId="8" r:id="rId5"/>
+    <sheet name="AI逻辑" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="177">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,19 +80,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位能看到的视野范围,单位无法选中看不见的单位
-视距为x即单位最多可以看到左右共2x+1格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手段槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>非玩家成长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,14 +109,6 @@
   </si>
   <si>
     <t>莫回头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在大地图中行动时,已经走过的格无法再走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完美粉尘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,10 +118,6 @@
   </si>
   <si>
     <t>事件细明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立 角色扮演 单人 2D 黑暗 回合制 重玩价值 类Rogue 僵尸 回合制战斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,23 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 : 20%
-2 : 18%
-3 : 16%
-4 : 14%
-5 : 12%
-6 : 8%
-7 : 6%
-8 : 4%
-9 : 2%
-(暂定,曲线缺点:不好记,不美观,不合理)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星球系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进入白昼时,玩家有10%几率旧病复发,变异出新型秽病</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,52 +223,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每一次远行都会解锁一个智核,用于提高重玩价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手段需要放入手段槽中才可在战斗中使用
-手段槽也有词条,作用于其中的手段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总攻击力 = (基础攻击力 + 攻击力加成) * (100 + 百分比攻击力加成 + 攻击力系数)%
-进攻伤害 = (总攻击力 + 伤害加成) * (100 + 百分比伤害加成)%
-其他伤害 = (基础伤害 + 伤害加成) * (100 + 百分比伤害加成)%
-其中生命值百分比伤害 = Math.max(伤害, 200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当状态最大层数为1时,那么施加状态将忽略"(1)",如"施加冰冻状态(1)"将被简写为"施加冰冻状态"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暗刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始单位都会得到(1+回合数/5)行动力
-回合结束时清空行动力
-行动都需要消耗行动力
-行动包括移动,进攻,使用手段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始单位都会得到(1+回合数/5)移动力,但不会超过上限
-回合结束时清空移动力
-移动时将优先消耗移动力,而非行动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,17 +272,6 @@
   </si>
   <si>
     <t>旅途事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一局应该在2~60分钟内结束
-一场战斗应该在1~8分钟内结束
-战斗时每回合推进时间0.1天
-应保证前200小时的游戏体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完美粉尘不会随死亡而失去,用于解锁成就</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -403,44 +312,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地形系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同的星球有不同的主要元素,且每颗星球将有独一无二的元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混沌值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家的每次前进都会导致熵增
-熵增则会导致事务变得混沌
-所以混沌值为玩家的前进格数的别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寻找"范围(2)”的目标,对其造成"成长伤害(75, 75)",且”斩杀(50)“,死于暗刃的单位将无法触发绝唱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始体积为10
-释放单位每失去1%生命值,深水炸弹初始体积+1
-释放单位体内的泰坦核心会翻十倍影响深水炸弹的初始体积
-对所在格所有目标造成"成长伤害(25*体积, 25)",并分裂为两个50%体积的深水炸弹,弹向两边
-当深水炸弹体积小于10时不再分裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手段框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值:[0,50]
-攻击力:[0,25]
-视距:[0,2]
-智核抗性:[0,2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,11 +344,6 @@
   </si>
   <si>
     <t>效果持续X回合指:从效果开始生效时单位的回合开始,到第(X-1)次此单位回合开始,即使单位已死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度为0的内容无法正常出现
-稀有度为10的内容只会存在一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,11 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通常情况下,玩家只能有一个队友
-玩家每有一个队友,遇到的单位团伙人数就+50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有10%概率自带组织
 有80%概率自带天赋词条,判定成功后概率-20%继续判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,38 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命值:100
-攻击力:20
-移动力:0
-视距:同攻击距离
-智核抗性:1
-勇气:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲:[0,9999]
-生命值上限:[1,9999]
-攻击力:[0,1000]
-伤害:[0,9999]
-攻击距离:[0,10]
-移动力上限:[0,10]
-视距:[0,10]
-智核抗性:[0,100]
-冷却上限:[0,10]
-技能框数量:[0,5]
-手段槽数量:[0,6]
-稀有度:[0,10]
-瘤化值:[0,100]
-硅化值:[0,100]
-勇气:[-100,100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气大于0被施加恐惧时,勇气越高,恐惧概率越低
-勇气小于0受到伤害时,勇气越低,恐惧概率越高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人机的手段框无手段框词条
 正常情况下,手段框数量最大为4,最高可提升至6个,有手段框词条</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,6 +404,301 @@
   <si>
     <t>当玩家在调整技能与物品过程中超出携带上限,就会出现临时物品格
 此格内的物品将在移动后被丢弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(物品:存储+携带)
+核心:100+10
+道具:0+4
+手段:100+4
+手段框:0+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电闪雷鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一回合后,对电闪内的单位造成"成长伤害(0, 50)"天雷伤害,所有目标平摊此伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天霹雳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始,对霹雳内的单位造成"成长伤害(0, 50)"天雷伤害,所有目标平摊此伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可以屏蔽自己不想使用的主动技能,这不会改变玩家已拥有的技能数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗刃碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有5个暗刃碎片就将合成一个暗刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌崩坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着混沌值的增长,世界将逐渐崩坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸疗法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每局开始会在随机地点开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据混沌值进行排名,取前30名
+根据"开局"种族分为主榜和非人榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉尘:最常见的货币,支撑整个货币系统,死亡掉落
+完美粉尘:用于解锁成就,死亡不掉落
+珍珠:由蚌类提供,1颗珍珠可以换任何商品,死亡不掉落,但在复活后必须立马使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始体积为释放者体积
+对所在格所有目标造成"成长伤害(体积, 25)",并分裂为两个50%体积的深水炸弹,弹向两边
+当深水炸弹体积小于10时不再分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位的行动顺序由速度决定,相同速度行动顺序随机
+当你的速度&gt;=场上速度最快的非己方单位的速度*2时,行动结束后你将速度减半并重新回到行动队列中,一回合只能触发1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊伤害不会响应伤害增加或减益,也不会暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气&gt;0被施加恐惧时,勇气越高,恐惧概率越低
+勇气&lt;0受到伤害时,勇气越低,恐惧概率越高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格转变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格在某些情况下将发生转变,并触发相应效果
+积水:当格受到深水炸弹时,有10%概率触发积水
+       当回合开始时在降雨,那么将有10%概率触发积水,如果没有,那么概率将叠加
+增温:当格上单位受到灼烧伤害时,有10%概率触发增温
+降温:当格上单位受到冰冻状态时,有10%概率触发降温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据的影响,不仅限对伤害的影响
+对影响数据不特殊计算,如对伤害的影响,与其他伤害增益同级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心效益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的核心效益将随机为0~200%,符合正态分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次造成伤害时都有概率暴击,造成高额伤害
+暴击伤是一种伤害增益,与其他伤害增益同级别
+当暴击概率&gt;100%时,多出部分将以1:1的比例增加暴击倍率(注意,并非转换),最多增加100%
+当暴击概率&gt;200%时,多余部分越多,进攻就越可能使全场敌人恐惧,全场己方单位暴击倍率+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果触发跟随,那么跟随者会尽量对同个目标执行同样的行为
+跟随行为无消耗,通常并不会发生在自己的回合
+主动技能跟随无视冷却,但会让技能进入最大冷却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手段包括主动技能和战争道具
+手段只有放入手段框中才可以在战斗中使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手段需要放入手段框中才可在战斗中使用
+手段框也有词条,作用于其中的手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位每回合开始时获得等同于攻势增值的攻势,回合结束时清空攻势
+进攻时将优先消耗攻势,而非行动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位每回合开始时获得等同于动势增值的动势,回合结束时清空动势
+移动时将优先消耗动势,而非行动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愈演愈烈:每过3回合,行动力上限+1
+单位每回合开始时获得等同于行动力增值的行动力,回合结束时清空行动力
+行动都需要消耗行动力
+行动包括移动,进攻,使用手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值:[0,50]
+攻击力:[0,10]
+视距:[0,2]
+智核抗性:[0,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局应该在2~30分钟内结束
+一场战斗应该在1~8分钟内结束
+一场战斗应该在5~15回合内结束
+战斗时每回合推进时间0.1天
+应保证前100小时的游戏体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红白撞煞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家及其队友在大地图每走一格恢复5%最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值:100
+攻击力:10(伤害提高方式比生命值提高方式多得多,所以生命值与伤害的比值并非10:1)
+视距:同攻击距离
+智核抗性:同稀有度
+动势增值:0
+攻势增值:0
+勇气:0
+暴击概率:10%
+暴击倍率:150%
+加入组织数量:1+混沌值/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾霭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位能看到的视野范围,单位无法选中看不见的单位
+视距为x即单位最多可以看到左右共2x+1格
+当然视野也分为眼前身后两部分,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾霭会降低单位的视野
+眼前/身后视野内每有一团雾霭,相应方向视距-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火裂现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>火烈现象为地裂现象的加强版,地裂现象与火烈现象共享增幅,如火烈现象获得增幅"火烈有25%概率触发火烈",那么地裂现象也会获得"地裂有25%概率触发地裂"增幅
+一回合后,对火烈内的单位造成灼烧"成长伤害(25, 25)"
+火烈增幅:
+火烈有25%概率触发火烈
+火烈有25%概率立即触发效果
+火烈有25%概率钻出微型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+火烈有10%概率使此格变为滚烫格
+火烈在造成伤害的同时还会施加灼伤状态
+火烈造成伤害后,永久提高1点火烈伤害
+火烈会在额外2个格同时触发
+火烈范围+1</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -611,51 +744,241 @@
 地裂会在额外2个格同时触发
 地裂范围+1</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(物品:存储+携带)
-核心:100+10
-道具:0+4
-手段:100+4
-手段框:0+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愈演愈烈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始的行动力会随着回合的增加而增加
-行动力+当前回合数/5 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电闪雷鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一回合后,对电闪内的单位造成"成长伤害(0, 50)"天雷伤害,所有目标平摊此伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴天霹雳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始,对霹雳内的单位造成"成长伤害(0, 50)"天雷伤害,所有目标平摊此伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能最低冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能如果基础冷却不为0,那么最低冷却时长为1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+地裂现象将改为火烈现象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度为0的内容无法正常出现
+稀有度为10的内容只会存在一个,如果又判定到,则改为1稀有度随机事物
+1 : 19%
+2 : 17%
+3 : 15%
+4 : 13%
+5 : 11%
+6 : 9%
+7 : 7%
+8 : 5%
+9 : 3%
+10:1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果混沌值&gt;1000:
+当玩家安逸时直接死亡
+生成单位文明量级为2
+玩家获得被动技能:"人人得而诛之"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在大地图中行动时,已经走过的格将变为陨星格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安眠药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺钉类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受到伤害时,护盾将为你抵挡伤害
+即使护盾只有一点,也将抵挡一次伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反秽土刺钉:
+  伤害+100%
+  对秽土有50%几率施加恐惧状态
+大范围刺钉:
+  放置范围+1
+  影响范围+1
+瞬逝刺钉:放置后不再眩晕立即触发
+酝酿刺钉:刺钉每存在3回合,在所在格生成刺钉
+虚存刺钉:放置刺钉时有50%几率不消耗刺钉
+焚天刺钉:额外造成相当于5%最大生命值的灼烧伤害
+天雷刺钉:额外造成相当于2%最大生命值的天雷伤害
+冰晶刺钉:额外施加"冰冻状态(2)"
+复用刺钉:
+  触发后有50%概率不会死亡
+  战斗结束时,回收所有在场上的刺钉
+回响刺钉:触发后再次触发
+连锁刺钉:触发后己方刺钉只要有目标将连锁触发,连锁触发伤害+连锁数*25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个数据将用于深水炸弹,泰坦核心的计算
+设伤害者的体积为x,被伤害者的体积为y,大小为z
+当x&gt;=y*10时,命中率-25%
+当x&gt;=y*100时,命中率-25%
+当x&gt;=y*1000时,命中率-25%
+体积对大小的影响:z=log2x + 1,z∈[1,10.96]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当混沌值被100整除时,接下来10格不刷新岔路,且必定刷新带有"领主"词条,与玩家为敌的特殊单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一次远行都会解锁一个智核,用于提高重玩价值
+每局额外解锁(混沌值/50)个智核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位在获得/失去手段后可以整理手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余温未了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从战场回到地图后,身上的状态立即经过一回合,后随着走动而逐渐减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌值每增长5,队友就有(粉尘)%概率购物,直至判定失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲:[0,9999]
+生命值上限:[1,9999]
+攻击力:[0,1000]
+伤害:[0,9999]
+攻击距离:[0,10]
+动势增值:[0,10]
+攻势增值:[0,10]
+视距:[0,10]
+暴击概率:[0,300]
+暴击倍率:[100,1000]%
+速度:[0,1000]
+体积:[1,1000]
+智核抗性:[0,100]
+冷却上限:[0,10]
+技能框数量:[0,5]
+手段槽数量:[0,6]
+稀有度:[0,10]
+瘤化值:[0,100]
+硅化值:[0,100]
+命中率:[0,200]%
+勇气:[-100,100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有进攻会受到命中率影响
+命中率&gt;100%,额外命中率将转为暴击概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当施加状态层数为1.那么将忽略"(1)",如"施加冰冻状态(1)"将被简写为"施加冰冻状态"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反量子值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的每次前进都会导致熵增
+熵增则会导致事务变得混沌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有50%概率,手段效益+{参数}*反量子值%,否则手段效益-{参数}*反量子值%
+当反量子值第一次达到25时,将引来影刺进行强制坍缩
+当反量子值第一次达到50时,将引来夜行终结者进行强制坍缩
+当反量子值第一次达到75时,将引来未来视听者进行强制坍缩
+当反量子值第一次达到100时,将引来观察者进行强制坍缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总攻击力 = (基础攻击力 + 攻击力加成) * (100 + 百分比攻击力加成 + 攻击力系数)%
+进攻伤害 = (总攻击力 + 生命值百分比伤害 + 伤害加成) * (100 + 百分比伤害加成)%
+其他伤害 = (基础伤害 + 生命值百分比伤害 + 伤害加成) * (100 + 百分比伤害加成)%
+其中生命值百分比伤害 = Math.max(伤害, 300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非消耗战斗道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用非消耗道具需要消耗行动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不好的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指现实世界在23:00~1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战场最左侧和最右侧生成红煞和白煞中立单位
+触发条件:
+1.月黑
+2.雾霭天
+3.飘渺之乡
+4.战场中有水坑格
+5.战场中至少有5具尸体
+6.正处不好的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立 角色扮演 单人 2D 黑暗 回合制 重玩价值 类Rogue 回合制战斗
+科幻 异世界 克苏鲁 仙侠 丧尸 元游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常情况下,玩家只能有一个队友
+特殊单位作为队友时,你将无法在野外遇见他(合理)
+玩家每有一个队友,遇到的单位团伙人数就+50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI性格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI将有不同的性格,
+性格将影响甚至决定AI的行为
+性格将带来一定的增益或减益
+(坏处:AI的行为将难以预测,如果这导致玩家从计算AI行为及其结果变为放弃思考,
+那么这将是灾难性的设计,这是无法接受的后果,而且不符合游戏减法,所以此项存疑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按esc键查看规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -664,10 +987,14 @@
 智核技能:这个技能可以通过智核获得
 位移技能:释放此技能被视为移动,即在代码上会被当作进行移动处理
 特殊攻击:释放此技能被视为进攻,即在代码上会被当作进行进攻处理
+无耗技能:释放此技能,无行动力消耗
 召唤技能:这个技能一定调用了"召唤"方法
-消耗技能:这个技能在触发效果后消失
 血线技能:这个被动技能的触发方式与血量百分比有关
 拳击技巧:这个被动技能被标记为拳击技巧,用于响应"拜师学艺"
+神选能力:这个被动技能被标记为神选能力,用于响应"飘渺之乡"
+消化系统:这个被动技能被标记为消化系统,用于响应"吞噬"
+              这个单位有初始100饱食度,在大地图每移动1格,饱食度-1,战斗中每回合-10
+              每次消化单位都将获得相当于其体积的饱食度,饥饿时将触发不同的效果
 隐私技能:你无法得知此技能的具体细节,包括名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -739,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -764,6 +1091,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,14 +1378,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.25" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1085,25 +1415,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
+      <c r="C5" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="62.5">
+    <row r="6" spans="1:4" ht="78.150000000000006">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1111,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.25">
@@ -1119,10 +1449,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1130,10 +1460,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.25">
@@ -1141,10 +1471,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="46.9">
@@ -1152,34 +1482,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1192,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F241D3D-7399-4996-9673-299E54708901}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1225,32 +1552,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="85.6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="142.65">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="214">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="299.55">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="46.9">
@@ -1258,21 +1585,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="142.65">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="171.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="62.5">
@@ -1280,10 +1607,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1295,16 +1622,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BA9FC0-3C89-4B1B-AB02-C3F2C08CC3CF}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="8" customWidth="1"/>
     <col min="3" max="3" width="86.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
@@ -1325,15 +1652,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="31.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.25">
@@ -1341,10 +1668,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1352,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31.25">
@@ -1363,21 +1690,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1385,89 +1712,180 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="62.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="140.6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="218.75">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="140.6">
+      <c r="B12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="78.150000000000006">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="125">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="265.60000000000002">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="156.25">
-      <c r="B14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.25">
-      <c r="B15" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>122</v>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1479,22 +1897,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829B86C1-15DD-4DBA-862E-5598D760BA3B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="83.5" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="5"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="145.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.65">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1502,178 +1919,309 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.65">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:3" ht="31.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>86</v>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="166.45">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="171.85">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="62.5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="46.9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="12" spans="1:3" ht="46.9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46.9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="46.9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="78.150000000000006">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="62.5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="46.9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="93.75">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="62.5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="142.65">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.1">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="26" spans="1:3" ht="31.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="71.349999999999994">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="42.8">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="42.8">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42.8">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.55">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="62.5">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="42.8">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.55">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.55">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="46.9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.55">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>105</v>
+    </row>
+    <row r="29" spans="1:3" ht="31.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1683,86 +2231,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DC2F92-86C9-4301-8932-0472E29FD1C0}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B468B6D-E965-4148-B4C8-373B6C8AAD4F}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
-  <cols>
-    <col min="1" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="68.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B468B6D-E965-4148-B4C8-373B6C8AAD4F}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
@@ -1797,7 +2270,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="46.9">
@@ -1805,10 +2278,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="5" customFormat="1" ht="28.55">
@@ -1816,10 +2289,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -1828,37 +2301,150 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="78.150000000000006">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="62.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="78.150000000000006">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="46.9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.25">
-      <c r="B9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>111</v>
+      <c r="C15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="62.5">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1868,17 +2454,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EFD8CF-34A0-4345-80C4-4D30862F048F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
     <col min="3" max="3" width="82.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1904,14 +2491,14 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" ht="28.55">
@@ -1919,55 +2506,63 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="71.349999999999994">
+      <c r="B8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
